--- a/data/trans_orig/Q4503_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q4503_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>85022</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>68783</v>
+        <v>69309</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102439</v>
+        <v>102531</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1794567710007932</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1451794769842981</v>
+        <v>0.1462907287375916</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2162182261400825</v>
+        <v>0.2164133488394139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -764,19 +764,19 @@
         <v>30599</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21806</v>
+        <v>21521</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42482</v>
+        <v>41916</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1001766107312146</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07139069259548581</v>
+        <v>0.07045539546096656</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1390803059150822</v>
+        <v>0.1372270022350777</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -785,19 +785,19 @@
         <v>115621</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96926</v>
+        <v>95631</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136082</v>
+        <v>135821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1483796696264917</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1243880483912188</v>
+        <v>0.122725855995671</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1746369812181517</v>
+        <v>0.1743023251860871</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>85786</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>69835</v>
+        <v>69982</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104987</v>
+        <v>104829</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.181068765946936</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1474006286672074</v>
+        <v>0.147711828965867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2215953826271951</v>
+        <v>0.2212617796961517</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -835,19 +835,19 @@
         <v>41730</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30864</v>
+        <v>31275</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>56494</v>
+        <v>56466</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1366199923500398</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1010459510429556</v>
+        <v>0.1023906108073258</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1849542354598629</v>
+        <v>0.1848631485148865</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -856,19 +856,19 @@
         <v>127517</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>106267</v>
+        <v>106353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>147857</v>
+        <v>149529</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.163645251181866</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1363751049792397</v>
+        <v>0.1364857704986344</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1897485894687929</v>
+        <v>0.1918936916307645</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>142135</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>123021</v>
+        <v>123342</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>163379</v>
+        <v>163809</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3000043280736511</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.259661536559568</v>
+        <v>0.2603391433998233</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3448435288727871</v>
+        <v>0.3457510483552345</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>90</v>
@@ -906,19 +906,19 @@
         <v>93763</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>78307</v>
+        <v>77220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111190</v>
+        <v>110846</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.306967726063394</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2563666012631032</v>
+        <v>0.2528080554376444</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3640215559322363</v>
+        <v>0.3628966798998547</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>228</v>
@@ -927,19 +927,19 @@
         <v>235898</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>211192</v>
+        <v>211707</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>263188</v>
+        <v>262679</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3027339167185404</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2710281848385127</v>
+        <v>0.2716883276072802</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.337756143162209</v>
+        <v>0.337102295461338</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>57459</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>44262</v>
+        <v>42619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>74218</v>
+        <v>72754</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1212790088961289</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09342296955001189</v>
+        <v>0.08995528696976059</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1566513615927901</v>
+        <v>0.1535617802779779</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -977,19 +977,19 @@
         <v>47289</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35279</v>
+        <v>35813</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>60110</v>
+        <v>60822</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1548175983565601</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1154986370808683</v>
+        <v>0.1172464319740474</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1967929795586422</v>
+        <v>0.1991216894488398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -998,19 +998,19 @@
         <v>104748</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>84832</v>
+        <v>87473</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126526</v>
+        <v>125535</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1344258307626438</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1088671522972364</v>
+        <v>0.1122563109139659</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1623745157827192</v>
+        <v>0.1611020568105227</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>103374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>86998</v>
+        <v>87036</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>123394</v>
+        <v>123742</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2181911260824908</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1836260854902102</v>
+        <v>0.1837066246185582</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2604478545859001</v>
+        <v>0.2611835514490399</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>91</v>
@@ -1048,19 +1048,19 @@
         <v>92068</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>76573</v>
+        <v>76661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108888</v>
+        <v>108391</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3014180724987915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2506888557080891</v>
+        <v>0.2509780816854497</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3564840154195807</v>
+        <v>0.3548566017397476</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>190</v>
@@ -1069,19 +1069,19 @@
         <v>195442</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>172273</v>
+        <v>170811</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>221826</v>
+        <v>222439</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2508153317104581</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2210826561062519</v>
+        <v>0.219206451560394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.284674658732117</v>
+        <v>0.2854612849705937</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>63867</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48969</v>
+        <v>50737</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80631</v>
+        <v>80400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1740563279420499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1334544233587318</v>
+        <v>0.1382732590745023</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2197413528902918</v>
+        <v>0.2191132197704386</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -1194,19 +1194,19 @@
         <v>46406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34171</v>
+        <v>33884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62143</v>
+        <v>61685</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1251787226055396</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09217450228983076</v>
+        <v>0.09140202369146114</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1676279658977926</v>
+        <v>0.1663918583707195</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>103</v>
@@ -1215,19 +1215,19 @@
         <v>110273</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92003</v>
+        <v>89819</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>130513</v>
+        <v>129812</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1494921217519564</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1247238511226974</v>
+        <v>0.121763174873278</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.176930366434001</v>
+        <v>0.1759792579527317</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>56722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43582</v>
+        <v>44922</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>71817</v>
+        <v>73252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1545831205581135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1187723590227822</v>
+        <v>0.1224258839032897</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1957231583798602</v>
+        <v>0.199632931541748</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>42</v>
@@ -1265,19 +1265,19 @@
         <v>43400</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>32094</v>
+        <v>32506</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>58207</v>
+        <v>57643</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1170686151832784</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08657357532545554</v>
+        <v>0.08768238391312247</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1570103887257462</v>
+        <v>0.1554894773498969</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>96</v>
@@ -1286,19 +1286,19 @@
         <v>100121</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>82118</v>
+        <v>80949</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>121469</v>
+        <v>122484</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1357296182475477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1113238328785072</v>
+        <v>0.1097388709256324</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1646694665998144</v>
+        <v>0.1660453765892724</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>100105</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>84464</v>
+        <v>84160</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>117688</v>
+        <v>119658</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2728147943709659</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2301875121110788</v>
+        <v>0.2293606389209721</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3207326569719496</v>
+        <v>0.3261032374420852</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -1336,19 +1336,19 @@
         <v>99417</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>83519</v>
+        <v>83015</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117037</v>
+        <v>117401</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2681744304441367</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2252887608982903</v>
+        <v>0.2239294629956295</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3157015009420417</v>
+        <v>0.3166835297063579</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>196</v>
@@ -1357,19 +1357,19 @@
         <v>199522</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>175659</v>
+        <v>174712</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>224851</v>
+        <v>227386</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.270482706791983</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2381317055228514</v>
+        <v>0.2368486224763952</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3048191594284722</v>
+        <v>0.3082565048404736</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>37543</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>25430</v>
+        <v>26421</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>49726</v>
+        <v>51146</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1023146189335931</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06930381559543415</v>
+        <v>0.07200527371464437</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1355166270237619</v>
+        <v>0.1393868373112613</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1407,19 +1407,19 @@
         <v>50683</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39037</v>
+        <v>37628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66182</v>
+        <v>64167</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1367142860897193</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1053013947230461</v>
+        <v>0.1015011556511133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1785229470954263</v>
+        <v>0.1730868920141699</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -1428,19 +1428,19 @@
         <v>88225</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>71584</v>
+        <v>70934</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>106672</v>
+        <v>106923</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1196027105059206</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.097043082017123</v>
+        <v>0.09616108187752209</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1446098174582964</v>
+        <v>0.1449496997850324</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>108697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>91335</v>
+        <v>91523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>125523</v>
+        <v>126386</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2962311381952776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2489147938045167</v>
+        <v>0.2494271853655666</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.342084932863647</v>
+        <v>0.3444377059723593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -1478,19 +1478,19 @@
         <v>130813</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113493</v>
+        <v>111251</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150104</v>
+        <v>148472</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.352863945677326</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3061423042691545</v>
+        <v>0.3000964310825853</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4049005196173542</v>
+        <v>0.4004976422757942</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>233</v>
@@ -1499,19 +1499,19 @@
         <v>239511</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>213781</v>
+        <v>216133</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>263309</v>
+        <v>266157</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3246928427025924</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2898129139123691</v>
+        <v>0.2930008885541552</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3569547637574305</v>
+        <v>0.3608159320089331</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>97177</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80556</v>
+        <v>80561</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117803</v>
+        <v>116029</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1791647725277388</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1485207400860972</v>
+        <v>0.1485295496410132</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2171929625474271</v>
+        <v>0.2139219799505202</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -1624,19 +1624,19 @@
         <v>20817</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>13682</v>
+        <v>13553</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>32356</v>
+        <v>30532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1240695367838678</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08154784096776178</v>
+        <v>0.08077955232805338</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1928440911876973</v>
+        <v>0.1819733142282682</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>114</v>
@@ -1645,19 +1645,19 @@
         <v>117994</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>98166</v>
+        <v>99256</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>138182</v>
+        <v>137179</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1661482121103994</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1382291981490819</v>
+        <v>0.1397628523376642</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1945754256854602</v>
+        <v>0.193162962712821</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>106979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89263</v>
+        <v>89557</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>125413</v>
+        <v>127804</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1972364062530623</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.164574423703772</v>
+        <v>0.1651150947984798</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2312236339500605</v>
+        <v>0.2356324972585569</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>22</v>
@@ -1695,19 +1695,19 @@
         <v>21881</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>14105</v>
+        <v>14721</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>31241</v>
+        <v>31827</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1304144324569066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08406652740574135</v>
+        <v>0.08774178563729206</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.186200399055855</v>
+        <v>0.1896929630172848</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>125</v>
@@ -1716,19 +1716,19 @@
         <v>128860</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>108151</v>
+        <v>109306</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>148999</v>
+        <v>152090</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1814493377818962</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1522883755981961</v>
+        <v>0.1539149424953424</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2098077596326656</v>
+        <v>0.2141600154393515</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>157832</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>137195</v>
+        <v>138766</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>180297</v>
+        <v>178616</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2909938907381517</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.252944848064654</v>
+        <v>0.2558423330211477</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3324130697587661</v>
+        <v>0.3293141189976314</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -1766,19 +1766,19 @@
         <v>42476</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31967</v>
+        <v>31725</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>54821</v>
+        <v>54754</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2531634759239607</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1905279302468215</v>
+        <v>0.1890862705545243</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3267380032827441</v>
+        <v>0.3263388094939049</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>198</v>
@@ -1787,19 +1787,19 @@
         <v>200308</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>176337</v>
+        <v>178422</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>224552</v>
+        <v>226390</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2820562417129053</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2483023652386723</v>
+        <v>0.2512385077356223</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3161938105144662</v>
+        <v>0.318782289597028</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>52482</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39437</v>
+        <v>40331</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>66784</v>
+        <v>68588</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09676158688197195</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07270946474772355</v>
+        <v>0.07435731926075209</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1231289798754879</v>
+        <v>0.126455373329892</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>18</v>
@@ -1837,19 +1837,19 @@
         <v>19237</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>11558</v>
+        <v>12299</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>28626</v>
+        <v>28614</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1146570416856708</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06888407167704086</v>
+        <v>0.07330619275859857</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1706143005053072</v>
+        <v>0.1705421288385263</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -1858,19 +1858,19 @@
         <v>71720</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58140</v>
+        <v>56508</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>88762</v>
+        <v>86845</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1009894890862751</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08186740762385153</v>
+        <v>0.07956890917687709</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1249867970461385</v>
+        <v>0.1222873630962707</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>127919</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>107135</v>
+        <v>108750</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>147583</v>
+        <v>148057</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2358433435990753</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1975238577266835</v>
+        <v>0.2005018840431807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2720976293283406</v>
+        <v>0.2729724137372264</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>63</v>
@@ -1908,19 +1908,19 @@
         <v>63371</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50649</v>
+        <v>50895</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>76194</v>
+        <v>76026</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3776955131495942</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3018712757003162</v>
+        <v>0.3033427479486113</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4541244641392049</v>
+        <v>0.4531244481151193</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>188</v>
@@ -1929,19 +1929,19 @@
         <v>191289</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>167135</v>
+        <v>168917</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215187</v>
+        <v>213771</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2693567193085241</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2353440498689599</v>
+        <v>0.2378537646301747</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3030079632077015</v>
+        <v>0.3010139975361647</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>282710</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>254922</v>
+        <v>253779</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>312322</v>
+        <v>312695</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2286523685655458</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2061771357824921</v>
+        <v>0.2052526983627848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2526017863389206</v>
+        <v>0.2529032304438813</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>79</v>
@@ -2054,19 +2054,19 @@
         <v>81351</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>64443</v>
+        <v>65093</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101867</v>
+        <v>99560</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1140414626908828</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09033946124303774</v>
+        <v>0.09124956944317754</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1428005942238383</v>
+        <v>0.1395677397896802</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>358</v>
@@ -2075,19 +2075,19 @@
         <v>364062</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>329545</v>
+        <v>330820</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>398674</v>
+        <v>399696</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1867204818136777</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1690175589655309</v>
+        <v>0.1696714206136892</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2044722435155719</v>
+        <v>0.2049964784868049</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>246738</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>218009</v>
+        <v>221634</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>275563</v>
+        <v>276925</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1995587836164231</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1763229276420185</v>
+        <v>0.1792545576080553</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2228713430974298</v>
+        <v>0.2239733944307108</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -2125,19 +2125,19 @@
         <v>86280</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>70714</v>
+        <v>69886</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>106003</v>
+        <v>108655</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.120950497806215</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09912966801442941</v>
+        <v>0.09796955406984574</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1485989125594067</v>
+        <v>0.1523170971333645</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>328</v>
@@ -2146,19 +2146,19 @@
         <v>333018</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>297813</v>
+        <v>300138</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>369969</v>
+        <v>366893</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1707989224740916</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1527428789583437</v>
+        <v>0.1539351139600882</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.189749934591852</v>
+        <v>0.1881724119746275</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>342603</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>312706</v>
+        <v>311752</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>376010</v>
+        <v>374800</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2770928590196497</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2529128015767768</v>
+        <v>0.252140510867621</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3041121534761621</v>
+        <v>0.3031334070133971</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>173</v>
@@ -2196,19 +2196,19 @@
         <v>178616</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>156065</v>
+        <v>155318</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>204601</v>
+        <v>205159</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.250391486096105</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2187787361167537</v>
+        <v>0.2177306557894745</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2868182812786469</v>
+        <v>0.2876004855158243</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>507</v>
@@ -2217,19 +2217,19 @@
         <v>521220</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>482746</v>
+        <v>480800</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>566388</v>
+        <v>558876</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2673238153409103</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2475916051210937</v>
+        <v>0.2465931448633824</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2904899925478939</v>
+        <v>0.2866367937311633</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>104772</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84449</v>
+        <v>88005</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>125593</v>
+        <v>124929</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08473848015883359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06830109455190307</v>
+        <v>0.07117760541195987</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1015778808717435</v>
+        <v>0.1010411356929043</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>90</v>
@@ -2267,19 +2267,19 @@
         <v>93377</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>76221</v>
+        <v>75473</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>113021</v>
+        <v>113093</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1308998088335774</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1068492334459823</v>
+        <v>0.1058016240458367</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.158437234794339</v>
+        <v>0.1585377590925023</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>194</v>
@@ -2288,19 +2288,19 @@
         <v>198150</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>170999</v>
+        <v>171469</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>223376</v>
+        <v>227063</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1016272011015151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08770194452585271</v>
+        <v>0.0879431077165683</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1145655641503859</v>
+        <v>0.1164563234455173</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>259596</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>231848</v>
+        <v>230990</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>288951</v>
+        <v>289145</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2099575086395478</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1875152006518084</v>
+        <v>0.186822024484091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2336999597970106</v>
+        <v>0.2338565759810054</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>270</v>
@@ -2338,19 +2338,19 @@
         <v>273724</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>248569</v>
+        <v>249980</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>297949</v>
+        <v>303233</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3837167445732197</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3484533908134866</v>
+        <v>0.3504325998841363</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4176773056926895</v>
+        <v>0.4250841779731864</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>528</v>
@@ -2359,19 +2359,19 @@
         <v>533319</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>494687</v>
+        <v>494328</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>574851</v>
+        <v>574670</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2735295792698053</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.253715891135187</v>
+        <v>0.2535316222400603</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2948305492457421</v>
+        <v>0.2947372546048824</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>80702</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64950</v>
+        <v>65530</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>96899</v>
+        <v>97357</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2302109981838039</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1852786831467229</v>
+        <v>0.1869311387425776</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2764153589632639</v>
+        <v>0.2777211373941812</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -2484,19 +2484,19 @@
         <v>69220</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>53006</v>
+        <v>55867</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>84991</v>
+        <v>86961</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1217049445412955</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09319672737268717</v>
+        <v>0.0982280927297025</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1494335338297249</v>
+        <v>0.1528980948039529</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>147</v>
@@ -2505,19 +2505,19 @@
         <v>149922</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>128437</v>
+        <v>128215</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>174671</v>
+        <v>173040</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1630810727797705</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1397102951338959</v>
+        <v>0.1394689514507558</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1900027749663399</v>
+        <v>0.1882291965068194</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>67938</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>53082</v>
+        <v>53552</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>83750</v>
+        <v>83032</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1938006630367793</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1514232105853073</v>
+        <v>0.1527626052356039</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2389060487170739</v>
+        <v>0.2368575908154312</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -2555,19 +2555,19 @@
         <v>63445</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>49153</v>
+        <v>49758</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>79530</v>
+        <v>80999</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1115510667638224</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08642270960580666</v>
+        <v>0.08748591034638543</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1398328360237763</v>
+        <v>0.1424146229063927</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>126</v>
@@ -2576,19 +2576,19 @@
         <v>131383</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>111069</v>
+        <v>112146</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>153908</v>
+        <v>155615</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1429149375222685</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1208181101292512</v>
+        <v>0.1219893979784891</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1674171247168106</v>
+        <v>0.1692739790938263</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>108428</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>90182</v>
+        <v>91323</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>126133</v>
+        <v>127447</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3093050523634095</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2572536397694413</v>
+        <v>0.260509715693855</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3598107271382472</v>
+        <v>0.3635581423369757</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>130</v>
@@ -2626,19 +2626,19 @@
         <v>136497</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>117204</v>
+        <v>114869</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>157198</v>
+        <v>157764</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2399936819375147</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2060721534311356</v>
+        <v>0.2019674408051119</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2763914883741829</v>
+        <v>0.2773856389166897</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>231</v>
@@ -2647,19 +2647,19 @@
         <v>244925</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216828</v>
+        <v>219335</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>273708</v>
+        <v>274531</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2664238768884327</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2358604327961522</v>
+        <v>0.2385874696627786</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2977330169818873</v>
+        <v>0.2986283382892327</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>22765</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14662</v>
+        <v>14201</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33229</v>
+        <v>33708</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06493929548025072</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04182623361252151</v>
+        <v>0.04051012012593289</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.09478853799622244</v>
+        <v>0.09615605510456389</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>78</v>
@@ -2697,19 +2697,19 @@
         <v>82365</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>66903</v>
+        <v>65523</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>101321</v>
+        <v>99444</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1448169577045431</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1176313731228385</v>
+        <v>0.1152045289091034</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.178146100553352</v>
+        <v>0.1748468333022112</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>101</v>
@@ -2718,19 +2718,19 @@
         <v>105130</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>87324</v>
+        <v>85470</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>127822</v>
+        <v>125711</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1143575659505043</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.09498945779079253</v>
+        <v>0.09297173598952137</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1390418352488413</v>
+        <v>0.1367452605636603</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>70722</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>56569</v>
+        <v>57393</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>88169</v>
+        <v>87038</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2017439909357566</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1613701666975575</v>
+        <v>0.1637210878913141</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2515131016765409</v>
+        <v>0.2482859924134183</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>204</v>
@@ -2768,19 +2768,19 @@
         <v>217225</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>193895</v>
+        <v>194905</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>242129</v>
+        <v>243042</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3819333490528244</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3409124697144187</v>
+        <v>0.3426886843961328</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4257200980782149</v>
+        <v>0.427325416199306</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>274</v>
@@ -2789,19 +2789,19 @@
         <v>287948</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>260017</v>
+        <v>258740</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>317999</v>
+        <v>318663</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.313222546859024</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2828406928014331</v>
+        <v>0.2814514527415641</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3459118594682835</v>
+        <v>0.3466342808667925</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>24389</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>15894</v>
+        <v>15261</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>35883</v>
+        <v>35895</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.08178811484455908</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.05329994492660577</v>
+        <v>0.05117820232909349</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.120329974103822</v>
+        <v>0.1203714373758239</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>128</v>
@@ -2914,19 +2914,19 @@
         <v>132598</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>110841</v>
+        <v>110873</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>155194</v>
+        <v>155643</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1063530067825787</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08890182535244123</v>
+        <v>0.08892770931516389</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1244763671539221</v>
+        <v>0.1248361223560807</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>152</v>
@@ -2935,19 +2935,19 @@
         <v>156988</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>132692</v>
+        <v>136885</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>180111</v>
+        <v>183242</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1016116677297612</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.08588628126996396</v>
+        <v>0.08860008456411658</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1165785294331051</v>
+        <v>0.1186047969187043</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>52072</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>40450</v>
+        <v>41101</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>65420</v>
+        <v>65695</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1746200341462708</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.135648357112659</v>
+        <v>0.1378293614735247</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2193824624559194</v>
+        <v>0.2203050369995538</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>113</v>
@@ -2985,19 +2985,19 @@
         <v>113554</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>95090</v>
+        <v>93870</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>136061</v>
+        <v>133058</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09107816976920809</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.07626875395662615</v>
+        <v>0.07528998422346111</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1091302584209761</v>
+        <v>0.106721271054682</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>168</v>
@@ -3006,19 +3006,19 @@
         <v>165626</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>141097</v>
+        <v>141043</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>187744</v>
+        <v>189306</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1072028205560125</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.09132633338367739</v>
+        <v>0.09129133265814354</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1215186788985178</v>
+        <v>0.1225298558521532</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>113390</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>97780</v>
+        <v>97704</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>128436</v>
+        <v>133104</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3802461922755034</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.3279008313149158</v>
+        <v>0.3276461835360096</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.430703660797902</v>
+        <v>0.4463579787066889</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>286</v>
@@ -3056,19 +3056,19 @@
         <v>289104</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>260807</v>
+        <v>259647</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>318243</v>
+        <v>318762</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2318809617142831</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2091848000765863</v>
+        <v>0.2082544398051309</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2552523553786978</v>
+        <v>0.2556687866721263</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>403</v>
@@ -3077,19 +3077,19 @@
         <v>402494</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>368891</v>
+        <v>368078</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>440446</v>
+        <v>436045</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2605173531755233</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2387679361981077</v>
+        <v>0.2382414998210331</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.285082349966999</v>
+        <v>0.2822338260280456</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>34835</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>24406</v>
+        <v>25493</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>47682</v>
+        <v>48762</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.116817442412905</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.08184549896768754</v>
+        <v>0.08549049011053118</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1598994208003874</v>
+        <v>0.1635202182260948</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>136</v>
@@ -3127,19 +3127,19 @@
         <v>135434</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>115732</v>
+        <v>115703</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>157937</v>
+        <v>158053</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.108627286513163</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.09282476939515523</v>
+        <v>0.09280139917931171</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1266760437827893</v>
+        <v>0.1267695388802533</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>172</v>
@@ -3148,19 +3148,19 @@
         <v>170269</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>146663</v>
+        <v>146496</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>196579</v>
+        <v>194600</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1102080915952326</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0949287021379239</v>
+        <v>0.09482055137190425</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1272373419312977</v>
+        <v>0.1259564613202805</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>73515</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>59303</v>
+        <v>57796</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>87648</v>
+        <v>89800</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2465282163207617</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1988699175926994</v>
+        <v>0.193814053769427</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2939216944851431</v>
+        <v>0.3011403152822407</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>573</v>
@@ -3198,19 +3198,19 @@
         <v>576086</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>542813</v>
+        <v>539288</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>611918</v>
+        <v>607889</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.462060575220767</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4353726812586244</v>
+        <v>0.4325454461162155</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4908000072297596</v>
+        <v>0.4875683738979231</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>647</v>
@@ -3219,19 +3219,19 @@
         <v>649602</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>610046</v>
+        <v>612312</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>688466</v>
+        <v>685218</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4204600669434704</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3948575974825239</v>
+        <v>0.3963239730245831</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4456155372288446</v>
+        <v>0.443512882597888</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>633868</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>589739</v>
+        <v>586611</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>679238</v>
+        <v>673295</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1939456850967075</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1804434866746274</v>
+        <v>0.1794862215425618</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2078277655462635</v>
+        <v>0.206009318582553</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>367</v>
@@ -3344,19 +3344,19 @@
         <v>380991</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>340362</v>
+        <v>346867</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>418265</v>
+        <v>418424</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1129590303134542</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1009128397933518</v>
+        <v>0.1028416373880125</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1240102338013333</v>
+        <v>0.1240572968243498</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>985</v>
@@ -3365,19 +3365,19 @@
         <v>1014859</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>959402</v>
+        <v>954595</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1076502</v>
+        <v>1074192</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1528148654513636</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1444642553287856</v>
+        <v>0.1437403349751717</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1620968784993839</v>
+        <v>0.1617489989555787</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>616235</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>572568</v>
+        <v>571807</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>662827</v>
+        <v>661994</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1885504844812632</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1751895496955793</v>
+        <v>0.1749569123430696</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2028064483654974</v>
+        <v>0.202551570615453</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>356</v>
@@ -3415,19 +3415,19 @@
         <v>370290</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>333243</v>
+        <v>335552</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>405509</v>
+        <v>408168</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1097862585817919</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.09880214164403837</v>
+        <v>0.09948697570322862</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1202282612211517</v>
+        <v>0.121016469285242</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>963</v>
@@ -3436,19 +3436,19 @@
         <v>986525</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>929733</v>
+        <v>929643</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1048690</v>
+        <v>1044187</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1485483732859483</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1399967278124889</v>
+        <v>0.1399832514859067</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1579089647870264</v>
+        <v>0.1572308620122878</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>964493</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>910611</v>
+        <v>912770</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1016975</v>
+        <v>1019204</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2951076922744444</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2786210958477697</v>
+        <v>0.2792817765974636</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3111656269470017</v>
+        <v>0.3118475800745345</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>818</v>
@@ -3486,19 +3486,19 @@
         <v>839874</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>791032</v>
+        <v>791223</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>889599</v>
+        <v>890683</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2490117770706734</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2345306762620221</v>
+        <v>0.2345875031340611</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2637546763253996</v>
+        <v>0.2640759020647089</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1763</v>
@@ -3507,19 +3507,19 @@
         <v>1804367</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1732083</v>
+        <v>1734630</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1875060</v>
+        <v>1880467</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.271696887374457</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2608124950450897</v>
+        <v>0.261195966374456</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2823416793231495</v>
+        <v>0.2831557881924198</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>309857</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>275867</v>
+        <v>277377</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>344142</v>
+        <v>343135</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.09480733182754014</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.08440752020312176</v>
+        <v>0.08486938155145739</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1052978059126079</v>
+        <v>0.1049896052966924</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>419</v>
@@ -3557,19 +3557,19 @@
         <v>428385</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>389623</v>
+        <v>393531</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>467274</v>
+        <v>468242</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1270106380876327</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1155181825101351</v>
+        <v>0.1166769678088479</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1385408594492869</v>
+        <v>0.1388276965077483</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>724</v>
@@ -3578,19 +3578,19 @@
         <v>738242</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>685921</v>
+        <v>685339</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>786482</v>
+        <v>789306</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1111624755893434</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1032841788764998</v>
+        <v>0.103196514688413</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1184263754920721</v>
+        <v>0.1188515871070357</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>743823</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>696070</v>
+        <v>696224</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>792956</v>
+        <v>790931</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2275888063200447</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.212977600144964</v>
+        <v>0.2130248972554249</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2426220611359803</v>
+        <v>0.2420025340599951</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1330</v>
@@ -3628,19 +3628,19 @@
         <v>1353288</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1298005</v>
+        <v>1300143</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1412466</v>
+        <v>1410840</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4012322959464479</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3848417763762765</v>
+        <v>0.3854756758299814</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4187779529394819</v>
+        <v>0.4182958559990467</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2060</v>
@@ -3649,19 +3649,19 @@
         <v>2097111</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2024914</v>
+        <v>2018836</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2175387</v>
+        <v>2180734</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3157773982988878</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3049062638410462</v>
+        <v>0.3039909980633706</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3275640992198477</v>
+        <v>0.3283692683617047</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>98137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82088</v>
+        <v>81009</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>117111</v>
+        <v>118073</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2244606012886897</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.187754260070722</v>
+        <v>0.1852847531704271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2678588861971888</v>
+        <v>0.2700594237259996</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>44</v>
@@ -4016,19 +4016,19 @@
         <v>48746</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>37387</v>
+        <v>35408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>64265</v>
+        <v>63599</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1573592339319767</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1206911339344803</v>
+        <v>0.1143040394771658</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2074591211284514</v>
+        <v>0.2053077798942222</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -4037,19 +4037,19 @@
         <v>146882</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>125955</v>
+        <v>124986</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>170369</v>
+        <v>170565</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1966337050133438</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1686173628909733</v>
+        <v>0.1673203118969663</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2280759687833586</v>
+        <v>0.2283384081071355</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>85575</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>70509</v>
+        <v>70558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>104682</v>
+        <v>104752</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1957293620700874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1612690064200401</v>
+        <v>0.161382140549729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.23943189666314</v>
+        <v>0.2395924477945295</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>61</v>
@@ -4087,19 +4087,19 @@
         <v>70066</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55224</v>
+        <v>55579</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87274</v>
+        <v>86225</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2261857177635648</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1782720912264152</v>
+        <v>0.179418088411481</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2817358894822563</v>
+        <v>0.2783484594973163</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -4108,19 +4108,19 @@
         <v>155641</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>134360</v>
+        <v>132240</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>179582</v>
+        <v>181180</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2083595942723921</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1798691703875402</v>
+        <v>0.1770322470886099</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2404094890569459</v>
+        <v>0.2425480912266041</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>112996</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>93055</v>
+        <v>95651</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>131655</v>
+        <v>134500</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2584475884823734</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2128378904063054</v>
+        <v>0.2187748296747534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3011243300462042</v>
+        <v>0.307631734197394</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>64</v>
@@ -4158,19 +4158,19 @@
         <v>68328</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>53886</v>
+        <v>53152</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>83458</v>
+        <v>83390</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2205750110695014</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1739522041317808</v>
+        <v>0.1715836218136694</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.269414931966755</v>
+        <v>0.2691956317629909</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>171</v>
@@ -4179,19 +4179,19 @@
         <v>181325</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>158689</v>
+        <v>158409</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>205469</v>
+        <v>207266</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2427418536387664</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2124397660098446</v>
+        <v>0.2120640394082754</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2750649586771052</v>
+        <v>0.2774705824309639</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>26181</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17877</v>
+        <v>17345</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38407</v>
+        <v>39384</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05988266692860778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04088923587509854</v>
+        <v>0.03967096773551029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08784437508829089</v>
+        <v>0.09008075401415491</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>30</v>
@@ -4229,19 +4229,19 @@
         <v>32717</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22671</v>
+        <v>23263</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>46585</v>
+        <v>44717</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1056170097800873</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07318479752216324</v>
+        <v>0.07509526156766648</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1503825114335691</v>
+        <v>0.1443520415005649</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -4250,19 +4250,19 @@
         <v>58899</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45357</v>
+        <v>46333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77142</v>
+        <v>77753</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07884867112318411</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06072015889024107</v>
+        <v>0.06202684998537555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1032706897844671</v>
+        <v>0.1040889560186844</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>114322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>94998</v>
+        <v>94864</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>136343</v>
+        <v>135482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2614797812302418</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2172808804627678</v>
+        <v>0.2169745654488243</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.311846226229354</v>
+        <v>0.3098780298847442</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>81</v>
@@ -4300,19 +4300,19 @@
         <v>89916</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>74519</v>
+        <v>74867</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>107221</v>
+        <v>106637</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2902630274548699</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2405582915345178</v>
+        <v>0.2416842584996363</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3461264830211668</v>
+        <v>0.344241434034698</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>184</v>
@@ -4321,19 +4321,19 @@
         <v>204238</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>179558</v>
+        <v>178035</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>228424</v>
+        <v>230925</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2734161759523135</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2403763720503611</v>
+        <v>0.2383379648737692</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3057950902864044</v>
+        <v>0.3091430958453132</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>97872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81184</v>
+        <v>79497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>120028</v>
+        <v>116981</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2347337230680072</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1947112462141827</v>
+        <v>0.190664713378104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2878729970777236</v>
+        <v>0.2805659354423655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>46</v>
@@ -4446,19 +4446,19 @@
         <v>52430</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38833</v>
+        <v>38609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>67001</v>
+        <v>67848</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1555616450146416</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1152176023912998</v>
+        <v>0.1145525995638463</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1987919446944791</v>
+        <v>0.2013048105633831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>131</v>
@@ -4467,19 +4467,19 @@
         <v>150302</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>128361</v>
+        <v>127257</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>175302</v>
+        <v>174990</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.19934308152427</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1702431045324353</v>
+        <v>0.1687786232085215</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2324996327402353</v>
+        <v>0.2320860561427112</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>84094</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67842</v>
+        <v>66637</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102968</v>
+        <v>101403</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2016902129312177</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1627097708416516</v>
+        <v>0.1598207697192365</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2469562131408392</v>
+        <v>0.243202070257393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>48</v>
@@ -4517,19 +4517,19 @@
         <v>50828</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>37529</v>
+        <v>38115</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>66390</v>
+        <v>65003</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1508080255969247</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1113498521596581</v>
+        <v>0.113086839963346</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1969799031857405</v>
+        <v>0.1928662430405833</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>121</v>
@@ -4538,19 +4538,19 @@
         <v>134923</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111242</v>
+        <v>113239</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>157971</v>
+        <v>157063</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1789454107587212</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1475386943986284</v>
+        <v>0.1501863503711473</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2095148400977204</v>
+        <v>0.2083105465272286</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>95564</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>79579</v>
+        <v>77808</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116212</v>
+        <v>114884</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2291996226652931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1908597289422695</v>
+        <v>0.1866124622780644</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2787201955684228</v>
+        <v>0.2755367523395034</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>72</v>
@@ -4588,19 +4588,19 @@
         <v>77745</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>62264</v>
+        <v>62351</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>93976</v>
+        <v>95908</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2306696172120189</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1847385006510323</v>
+        <v>0.1849977323159264</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2788269808061227</v>
+        <v>0.2845619847971356</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>158</v>
@@ -4609,19 +4609,19 @@
         <v>173309</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>148236</v>
+        <v>149239</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>195734</v>
+        <v>200732</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2298567236452542</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1966023090395372</v>
+        <v>0.1979330093652958</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2595987243166636</v>
+        <v>0.2662269331858889</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>23748</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15040</v>
+        <v>15514</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35751</v>
+        <v>34874</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05695655700005923</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03607069428382714</v>
+        <v>0.03720798200754093</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08574534082503374</v>
+        <v>0.08363994563794912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>38</v>
@@ -4659,19 +4659,19 @@
         <v>42313</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>29318</v>
+        <v>30800</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>54263</v>
+        <v>55628</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1255431706756401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0869880496345444</v>
+        <v>0.0913849027080675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1609987894091059</v>
+        <v>0.1650496582578063</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>60</v>
@@ -4680,19 +4680,19 @@
         <v>66061</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>50476</v>
+        <v>50610</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>84604</v>
+        <v>84261</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08761539934666458</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06694519757682164</v>
+        <v>0.06712303628984179</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1122089434249641</v>
+        <v>0.1117533867019823</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>115670</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>97229</v>
+        <v>96899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135458</v>
+        <v>135408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2774198843354228</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2331921943804134</v>
+        <v>0.2324009754103346</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3248803870379919</v>
+        <v>0.3247590663055478</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>100</v>
@@ -4730,19 +4730,19 @@
         <v>113723</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>95207</v>
+        <v>94532</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>131869</v>
+        <v>132538</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3374175415007747</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2824796966349629</v>
+        <v>0.2804779332500502</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3912574802639796</v>
+        <v>0.3932421061621722</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>207</v>
@@ -4751,19 +4751,19 @@
         <v>229393</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>201314</v>
+        <v>203616</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>260318</v>
+        <v>257894</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.30423938472509</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2669995331972518</v>
+        <v>0.2700521390370654</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3452549174496738</v>
+        <v>0.3420404577747754</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>177631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>156064</v>
+        <v>154100</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>200383</v>
+        <v>203720</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.283100155947524</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2487269624189964</v>
+        <v>0.2455977082034858</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3193604019308429</v>
+        <v>0.3246794878928311</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -4876,19 +4876,19 @@
         <v>59036</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45575</v>
+        <v>46173</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72314</v>
+        <v>72747</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2269471344227101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.175202758173317</v>
+        <v>0.1774984990226848</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2779910734898141</v>
+        <v>0.2796554936343627</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>217</v>
@@ -4897,19 +4897,19 @@
         <v>236667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>208842</v>
+        <v>211983</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>266986</v>
+        <v>264219</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2666429790035422</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2352933558680472</v>
+        <v>0.2388321396224067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3008025017321275</v>
+        <v>0.2976849346782968</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>114297</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>95667</v>
+        <v>96888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135985</v>
+        <v>137901</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.182160737344139</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1524690785969766</v>
+        <v>0.1544152145039444</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2167266033795524</v>
+        <v>0.2197808421383905</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>30</v>
@@ -4947,19 +4947,19 @@
         <v>32274</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>22359</v>
+        <v>22728</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44577</v>
+        <v>44490</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1240676951098232</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08595265473216465</v>
+        <v>0.0873739023288002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1713635043899013</v>
+        <v>0.1710292175038814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>139</v>
@@ -4968,19 +4968,19 @@
         <v>146571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>125039</v>
+        <v>124490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>170346</v>
+        <v>170681</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1651349843338247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1408757697788114</v>
+        <v>0.1402579466294611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.191921774763548</v>
+        <v>0.1922994276312364</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>130742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>109591</v>
+        <v>111430</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152360</v>
+        <v>152021</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2083707458102067</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1746609093365657</v>
+        <v>0.1775919468756745</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2428234359134302</v>
+        <v>0.2422833921708987</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -5018,19 +5018,19 @@
         <v>52631</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41863</v>
+        <v>39437</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67085</v>
+        <v>65689</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2023263396367817</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.160932867509697</v>
+        <v>0.1516036275127401</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2578927958253099</v>
+        <v>0.252522951919248</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>176</v>
@@ -5039,19 +5039,19 @@
         <v>183373</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>160822</v>
+        <v>161395</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>209483</v>
+        <v>208960</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2065992674602234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1811910070990432</v>
+        <v>0.1818376491374269</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2360162898180866</v>
+        <v>0.2354261832041974</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>25484</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17092</v>
+        <v>17024</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>36964</v>
+        <v>36702</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04061527200061247</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02724037025588085</v>
+        <v>0.02713206976690155</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05891152749801599</v>
+        <v>0.0584931928695031</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -5089,19 +5089,19 @@
         <v>25220</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16121</v>
+        <v>17495</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>37530</v>
+        <v>38357</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09695199147335587</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06197171530530608</v>
+        <v>0.06725512086544191</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1442762108517122</v>
+        <v>0.1474526991509725</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>48</v>
@@ -5110,19 +5110,19 @@
         <v>50704</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>37388</v>
+        <v>37328</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>68215</v>
+        <v>65725</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05712628664648867</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04212360812161647</v>
+        <v>0.04205648865308077</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07685493437642611</v>
+        <v>0.07404999864732785</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>179296</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>155535</v>
+        <v>155498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>200768</v>
+        <v>202751</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2857530888975179</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2478843099657612</v>
+        <v>0.2478253426070385</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3199739837830168</v>
+        <v>0.3231348449354542</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>87</v>
@@ -5160,19 +5160,19 @@
         <v>90969</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>76584</v>
+        <v>76281</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>107439</v>
+        <v>107321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3497068393573292</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2944065344830272</v>
+        <v>0.2932419226067192</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4130228790607255</v>
+        <v>0.4125674118662429</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>253</v>
@@ -5181,19 +5181,19 @@
         <v>270265</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>242392</v>
+        <v>243744</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>298431</v>
+        <v>299987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.304496482555921</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2730933665098928</v>
+        <v>0.2746165161037758</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3362299130327819</v>
+        <v>0.3379835658953901</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>300578</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>272656</v>
+        <v>272511</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>334945</v>
+        <v>332201</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2597770770268342</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2356451494722977</v>
+        <v>0.2355198473916639</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2894789660299604</v>
+        <v>0.2871072056336058</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>121</v>
@@ -5306,19 +5306,19 @@
         <v>129854</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>108629</v>
+        <v>110555</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>150493</v>
+        <v>151612</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1698089256631402</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1420529602933851</v>
+        <v>0.1445714922964925</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1967984612736553</v>
+        <v>0.1982612138297429</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>409</v>
@@ -5327,19 +5327,19 @@
         <v>430432</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>391971</v>
+        <v>392749</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>465125</v>
+        <v>470551</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2239770884633549</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2039636326728593</v>
+        <v>0.2043688182491928</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2420298858260473</v>
+        <v>0.2448533379702491</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>229221</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>203495</v>
+        <v>200150</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>256063</v>
+        <v>258414</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1981061618026639</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1758722155449853</v>
+        <v>0.1729812304451384</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2213042692572972</v>
+        <v>0.2233361456330145</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>106</v>
@@ -5377,19 +5377,19 @@
         <v>114988</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>96154</v>
+        <v>95787</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>139051</v>
+        <v>136606</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1503686812002103</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1257390784208242</v>
+        <v>0.1252596428703202</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.181836173695984</v>
+        <v>0.1786383100944185</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>315</v>
@@ -5398,19 +5398,19 @@
         <v>344209</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>309470</v>
+        <v>310558</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>379566</v>
+        <v>380437</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1791105368652507</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1610338786295067</v>
+        <v>0.1616004067524915</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1975088207179159</v>
+        <v>0.1979617736038801</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>195700</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>170742</v>
+        <v>172930</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>222528</v>
+        <v>223338</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1691358084214388</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1475656036197016</v>
+        <v>0.1494562527247551</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.192321460588995</v>
+        <v>0.1930215996766585</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>141</v>
@@ -5448,19 +5448,19 @@
         <v>152063</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>130725</v>
+        <v>128115</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>175874</v>
+        <v>174374</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1988518081990807</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.170948142091149</v>
+        <v>0.1675352437825398</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2299887567176444</v>
+        <v>0.2280276144463136</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>324</v>
@@ -5469,19 +5469,19 @@
         <v>347764</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>312266</v>
+        <v>314525</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>382791</v>
+        <v>383998</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1809603533972649</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1624889698674273</v>
+        <v>0.1636645083728056</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1991871295196768</v>
+        <v>0.1998151086343324</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>56656</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>42810</v>
+        <v>42684</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>73502</v>
+        <v>73937</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04896585944664021</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03699859740500745</v>
+        <v>0.03689023063454701</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06352452078732644</v>
+        <v>0.06390035943955281</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>58</v>
@@ -5519,19 +5519,19 @@
         <v>61001</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>48540</v>
+        <v>48412</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>78086</v>
+        <v>78797</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07977065754632481</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06347474218560169</v>
+        <v>0.06330743511391912</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1021121449068294</v>
+        <v>0.1030421139888325</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>110</v>
@@ -5540,19 +5540,19 @@
         <v>117658</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>95131</v>
+        <v>96501</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>138201</v>
+        <v>139832</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06122365737794267</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0495019777652674</v>
+        <v>0.0502147412677483</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07191357570106273</v>
+        <v>0.07276204685572175</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>374905</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>339475</v>
+        <v>342951</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>407202</v>
+        <v>408497</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.324015093302423</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2933946334192977</v>
+        <v>0.2963987026355984</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3519282597709942</v>
+        <v>0.3530468825112503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>283</v>
@@ -5590,19 +5590,19 @@
         <v>306800</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>280716</v>
+        <v>279588</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>334131</v>
+        <v>336148</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.401199927391244</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3670899263170086</v>
+        <v>0.365615039962056</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4369400355660502</v>
+        <v>0.4395774286325317</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>632</v>
@@ -5611,19 +5611,19 @@
         <v>681706</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>638291</v>
+        <v>633855</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>729466</v>
+        <v>722939</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3547283638961868</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3321371917558039</v>
+        <v>0.3298293184664421</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3795807979542314</v>
+        <v>0.3761844376624688</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>136418</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>117255</v>
+        <v>117797</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>156583</v>
+        <v>158333</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.267747680555643</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2301371949584682</v>
+        <v>0.2312000676148651</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.307325999496648</v>
+        <v>0.3107599747784142</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>98</v>
@@ -5736,19 +5736,19 @@
         <v>107587</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>88456</v>
+        <v>88505</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>127041</v>
+        <v>128783</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1418971272482635</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1166650914532467</v>
+        <v>0.1167297825673406</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1675540728995487</v>
+        <v>0.1698514666674227</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>227</v>
@@ -5757,19 +5757,19 @@
         <v>244006</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>211600</v>
+        <v>215497</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>273326</v>
+        <v>273562</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.192477442289247</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1669150479119912</v>
+        <v>0.1699890174503528</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2156057036800136</v>
+        <v>0.2157922225561878</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>93779</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>77209</v>
+        <v>77019</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>112039</v>
+        <v>112567</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1840607501522437</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1515385354481535</v>
+        <v>0.1511647736994235</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2198990987626891</v>
+        <v>0.2209349533579785</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>100</v>
@@ -5807,19 +5807,19 @@
         <v>107412</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>89090</v>
+        <v>87655</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>130881</v>
+        <v>127474</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.141665376891699</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1175008823191269</v>
+        <v>0.1156088163331927</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1726186194567148</v>
+        <v>0.1681250601866331</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>189</v>
@@ -5828,19 +5828,19 @@
         <v>201191</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>174044</v>
+        <v>174668</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>228367</v>
+        <v>227661</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1587044067524656</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1372899027032607</v>
+        <v>0.137782552874328</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1801411503702555</v>
+        <v>0.1795845211010223</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>87174</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>71271</v>
+        <v>69351</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>105467</v>
+        <v>104861</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1710960164885689</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1398830821733387</v>
+        <v>0.1361155025676291</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2070001466959977</v>
+        <v>0.205811748504098</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>112</v>
@@ -5878,19 +5878,19 @@
         <v>119521</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>99963</v>
+        <v>100554</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>140128</v>
+        <v>140542</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1576359910123029</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1318412468023758</v>
+        <v>0.1326212177799229</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1848153894305752</v>
+        <v>0.1853613803508891</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>194</v>
@@ -5899,19 +5899,19 @@
         <v>206695</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>181371</v>
+        <v>179598</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>236704</v>
+        <v>233252</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1630456798150718</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1430695371589724</v>
+        <v>0.1416713145913909</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1867176039895038</v>
+        <v>0.1839943746082906</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>23255</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14236</v>
+        <v>14828</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34098</v>
+        <v>33162</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04564306891289162</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02794087069365568</v>
+        <v>0.02910318613206046</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06692373095275335</v>
+        <v>0.06508780620208023</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>58</v>
@@ -5949,19 +5949,19 @@
         <v>62223</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>49609</v>
+        <v>48947</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>78948</v>
+        <v>78625</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08206591906117525</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06542901155404186</v>
+        <v>0.0645557782577932</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1041252002103822</v>
+        <v>0.1036985998790198</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>81</v>
@@ -5970,19 +5970,19 @@
         <v>85478</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>68951</v>
+        <v>68830</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>106724</v>
+        <v>105637</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0674272926366167</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0543902428353039</v>
+        <v>0.0542948082256517</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08418676737750048</v>
+        <v>0.08332896924138511</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>168876</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>149558</v>
+        <v>146549</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>191709</v>
+        <v>189562</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3314524838906528</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2935372236801166</v>
+        <v>0.2876319719715348</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.376266699476577</v>
+        <v>0.372053647288549</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>332</v>
@@ -6020,19 +6020,19 @@
         <v>361464</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>331711</v>
+        <v>332022</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>388799</v>
+        <v>389422</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.4767355857865594</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4374937207019766</v>
+        <v>0.4379046524768619</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.5127880294496042</v>
+        <v>0.5136095624844216</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>495</v>
@@ -6041,19 +6041,19 @@
         <v>530340</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>493872</v>
+        <v>489724</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>566009</v>
+        <v>565145</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4183451785065989</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3895779223728633</v>
+        <v>0.3863057530626322</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.4464815684561235</v>
+        <v>0.4457995207158791</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>44999</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>33408</v>
+        <v>33223</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>59685</v>
+        <v>59218</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1686093893723248</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1251781876903327</v>
+        <v>0.1244853021247643</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2236399861295984</v>
+        <v>0.2218868722769953</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>140</v>
@@ -6166,19 +6166,19 @@
         <v>151894</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>127205</v>
+        <v>129781</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>178014</v>
+        <v>174995</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1371947504980177</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1148948624430544</v>
+        <v>0.1172222753345995</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1607876648875756</v>
+        <v>0.1580599581359124</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>182</v>
@@ -6187,19 +6187,19 @@
         <v>196893</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>171411</v>
+        <v>170799</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>226179</v>
+        <v>222595</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1432965446278764</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.124751163074997</v>
+        <v>0.1243057609695543</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1646106550110835</v>
+        <v>0.1620026913953024</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>53560</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>42139</v>
+        <v>41490</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>67060</v>
+        <v>67898</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2006884161837821</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1578946139543298</v>
+        <v>0.1554629281511961</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2512706126036662</v>
+        <v>0.2544117954224611</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>136</v>
@@ -6237,19 +6237,19 @@
         <v>144371</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>123425</v>
+        <v>122345</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>171023</v>
+        <v>170554</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1304000859758329</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1114806032575623</v>
+        <v>0.1105057836443395</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1544732209395946</v>
+        <v>0.1540490104544064</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>191</v>
@@ -6258,19 +6258,19 @@
         <v>197931</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>172146</v>
+        <v>173204</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>222932</v>
+        <v>225097</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1440524765818955</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1252860075213161</v>
+        <v>0.1260562532369775</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1622477162980358</v>
+        <v>0.1638236793304416</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>65125</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>52551</v>
+        <v>52046</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>80073</v>
+        <v>80297</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2440215742847549</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1969080554459212</v>
+        <v>0.1950139637145639</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3000322342473055</v>
+        <v>0.3008708192717565</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>207</v>
@@ -6308,19 +6308,19 @@
         <v>214907</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>187289</v>
+        <v>188998</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>241480</v>
+        <v>243855</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1941096922515653</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1691647362880585</v>
+        <v>0.1707082817261358</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2181119029720291</v>
+        <v>0.2202566827058456</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>273</v>
@@ -6329,19 +6329,19 @@
         <v>280032</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>251500</v>
+        <v>253764</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>308779</v>
+        <v>314106</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2038042817714022</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1830392208544845</v>
+        <v>0.1846867627459976</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2247262261427463</v>
+        <v>0.2286032659822351</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>24911</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>16249</v>
+        <v>16668</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>35332</v>
+        <v>35657</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.093342662275902</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.0608841286392096</v>
+        <v>0.06245518364356999</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1323875775852558</v>
+        <v>0.1336076259572174</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>101</v>
@@ -6379,19 +6379,19 @@
         <v>105080</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>86837</v>
+        <v>86611</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>125284</v>
+        <v>124906</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.09491154519068964</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.0784338944955567</v>
+        <v>0.07822960667085688</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.113160430427249</v>
+        <v>0.1128189500705989</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>126</v>
@@ -6400,19 +6400,19 @@
         <v>129992</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>109180</v>
+        <v>109341</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>152659</v>
+        <v>151896</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.0946068146286676</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07945993757345927</v>
+        <v>0.07957697463627893</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1111039564992183</v>
+        <v>0.1105482954506014</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>78287</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>63944</v>
+        <v>65011</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>92722</v>
+        <v>95349</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2933379578832363</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2395980378892233</v>
+        <v>0.2435959568419867</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3474269309717234</v>
+        <v>0.3572714544889187</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>458</v>
@@ -6450,19 +6450,19 @@
         <v>490888</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>457307</v>
+        <v>457582</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>524777</v>
+        <v>523810</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4433839260838945</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4130522390141385</v>
+        <v>0.4133006705089805</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4739934150365989</v>
+        <v>0.4731203504844028</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>535</v>
@@ -6471,19 +6471,19 @@
         <v>569175</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>529526</v>
+        <v>530622</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>607483</v>
+        <v>605217</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4142398823901583</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3853835728351431</v>
+        <v>0.3861818229640955</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4421201153993788</v>
+        <v>0.4404709224285531</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>855634</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>800261</v>
+        <v>803518</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>906291</v>
+        <v>904551</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2505478203823716</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2343334746673417</v>
+        <v>0.2352869814800072</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2653810428761729</v>
+        <v>0.2648717981034879</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>503</v>
@@ -6596,19 +6596,19 @@
         <v>549547</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>506313</v>
+        <v>507804</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>595421</v>
+        <v>598073</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1553710994374456</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1431476382477492</v>
+        <v>0.1435693024637691</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1683407584435178</v>
+        <v>0.1690905540170654</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>1300</v>
@@ -6617,19 +6617,19 @@
         <v>1405181</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1328011</v>
+        <v>1333963</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1472624</v>
+        <v>1472459</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.2021247309037061</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1910243693695683</v>
+        <v>0.1918804947489694</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.2118258261435185</v>
+        <v>0.2118020463520126</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>660526</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>610676</v>
+        <v>615022</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>708767</v>
+        <v>707693</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.193416111517123</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1788189413014948</v>
+        <v>0.1800913867071152</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2075420260599532</v>
+        <v>0.2072274668351706</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>481</v>
@@ -6667,19 +6667,19 @@
         <v>519939</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>471807</v>
+        <v>479260</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>563944</v>
+        <v>566665</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1470001812523938</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1333918663291482</v>
+        <v>0.1354991807600845</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1594415203110059</v>
+        <v>0.160210896039839</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1096</v>
@@ -6688,19 +6688,19 @@
         <v>1180466</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1111162</v>
+        <v>1116767</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1248007</v>
+        <v>1245553</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1698010644538284</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1598323049121753</v>
+        <v>0.1606385541363575</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.1795163564154265</v>
+        <v>0.1791633803914649</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>687302</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>641668</v>
+        <v>641138</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>736276</v>
+        <v>734243</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2012564995696187</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1878940738714384</v>
+        <v>0.1877386259899523</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2155971091831294</v>
+        <v>0.2150018880096577</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>646</v>
@@ -6738,19 +6738,19 @@
         <v>685195</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>641832</v>
+        <v>637951</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>735054</v>
+        <v>730052</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1937222098847093</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1814623329899671</v>
+        <v>0.1803651764246967</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2078185775256977</v>
+        <v>0.2064044620356137</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1296</v>
@@ -6759,19 +6759,19 @@
         <v>1372497</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1306454</v>
+        <v>1310483</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1440229</v>
+        <v>1450488</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1974232766980127</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1879235180077019</v>
+        <v>0.1885030942016883</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2071660858275968</v>
+        <v>0.2086417664042667</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>180237</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>156099</v>
+        <v>153147</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>210265</v>
+        <v>208693</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05277706397318246</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.04570912515815695</v>
+        <v>0.04484460257800164</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06157004572546888</v>
+        <v>0.0611096771825819</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>308</v>
@@ -6809,19 +6809,19 @@
         <v>328555</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>292641</v>
+        <v>295592</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>366332</v>
+        <v>366138</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.09289093695103669</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.08273709763059139</v>
+        <v>0.08357159604882483</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.1035714706514677</v>
+        <v>0.1035167283277362</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>479</v>
@@ -6830,19 +6830,19 @@
         <v>508791</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>464802</v>
+        <v>462063</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>551454</v>
+        <v>547072</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.07318581141959271</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.06685822771914858</v>
+        <v>0.06646431260517972</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.07932251927904933</v>
+        <v>0.07869213353737815</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>1031355</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>978032</v>
+        <v>970325</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1088675</v>
+        <v>1083440</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3020025045577043</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2863884343362678</v>
+        <v>0.2841315292429966</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3187871858476249</v>
+        <v>0.3172541070677179</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1341</v>
@@ -6880,19 +6880,19 @@
         <v>1453761</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1395642</v>
+        <v>1394243</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1518143</v>
+        <v>1513986</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4110155724744146</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3945838269945934</v>
+        <v>0.3941882134505456</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4292181523656793</v>
+        <v>0.4280426822674002</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2306</v>
@@ -6901,19 +6901,19 @@
         <v>2485116</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2397463</v>
+        <v>2400147</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2564251</v>
+        <v>2558846</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3574651165248602</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.344856870826355</v>
+        <v>0.3452430269514407</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3688481855270957</v>
+        <v>0.368070685296833</v>
       </c>
     </row>
     <row r="45">
@@ -7247,19 +7247,19 @@
         <v>79501</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64149</v>
+        <v>62950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>99031</v>
+        <v>98057</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1856532450650648</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1498014503079701</v>
+        <v>0.147001875327994</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2312592215174926</v>
+        <v>0.2289836146289324</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -7268,19 +7268,19 @@
         <v>48010</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35980</v>
+        <v>35362</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63036</v>
+        <v>62486</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1383340642275153</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1036731534364836</v>
+        <v>0.1018916275796062</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1816298389735527</v>
+        <v>0.1800470678584339</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>116</v>
@@ -7289,19 +7289,19 @@
         <v>127511</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104620</v>
+        <v>107664</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>149664</v>
+        <v>150186</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1644707700943356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1349445125653962</v>
+        <v>0.1388709865890574</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1930451084192638</v>
+        <v>0.1937189862499799</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>126314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109204</v>
+        <v>107381</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147634</v>
+        <v>144434</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2949717095092391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2550146403692746</v>
+        <v>0.2507586089497763</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.34475749603603</v>
+        <v>0.3372843814690781</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>86</v>
@@ -7339,19 +7339,19 @@
         <v>90034</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73462</v>
+        <v>74622</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106483</v>
+        <v>106897</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2594238968355503</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2116733916593837</v>
+        <v>0.2150149518335238</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3068198679427513</v>
+        <v>0.3080122216126933</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>205</v>
@@ -7360,19 +7360,19 @@
         <v>216349</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>191716</v>
+        <v>190620</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>242185</v>
+        <v>241148</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2790586983603424</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2472862334057009</v>
+        <v>0.2458729976199109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3123845108560614</v>
+        <v>0.3110460528986931</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>97249</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>79520</v>
+        <v>78941</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114627</v>
+        <v>114901</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.227096914804694</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.185696179999355</v>
+        <v>0.1843448824088482</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2676792086322379</v>
+        <v>0.2683187018051955</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>92</v>
@@ -7410,19 +7410,19 @@
         <v>92666</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>76381</v>
+        <v>77676</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>111097</v>
+        <v>111092</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2670074122951884</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2200842062758095</v>
+        <v>0.2238134416280955</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3201142441239799</v>
+        <v>0.3201003456715495</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>181</v>
@@ -7431,19 +7431,19 @@
         <v>189915</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>165506</v>
+        <v>166244</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>217575</v>
+        <v>214308</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2449628858379646</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2134783690186328</v>
+        <v>0.2144311745542354</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2806399257043632</v>
+        <v>0.2764266552052469</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>30326</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19130</v>
+        <v>20510</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43324</v>
+        <v>43658</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.07081750638467853</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04467243082580026</v>
+        <v>0.04789512002219935</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1011721413353162</v>
+        <v>0.1019504410629646</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>40</v>
@@ -7481,19 +7481,19 @@
         <v>42209</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32017</v>
+        <v>30839</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59470</v>
+        <v>56749</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1216210655952909</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09225314233399005</v>
+        <v>0.0888597883098155</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1713570803352812</v>
+        <v>0.1635162641751221</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -7502,19 +7502,19 @@
         <v>72535</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>55106</v>
+        <v>58064</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90551</v>
+        <v>90629</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09355976654968969</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07107831535811622</v>
+        <v>0.07489486532257852</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.116798230707774</v>
+        <v>0.1168979126145085</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>94835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79282</v>
+        <v>78515</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>114369</v>
+        <v>114004</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2214606242363235</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.185141441549546</v>
+        <v>0.1833497890514028</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2670759772709716</v>
+        <v>0.2662242019970503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>69</v>
@@ -7552,19 +7552,19 @@
         <v>74136</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>58914</v>
+        <v>59813</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>90895</v>
+        <v>90438</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2136135610464549</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1697546573411951</v>
+        <v>0.1723453180657914</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2619050595661559</v>
+        <v>0.2605879740774762</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>158</v>
@@ -7573,19 +7573,19 @@
         <v>168971</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>146994</v>
+        <v>143575</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>193676</v>
+        <v>192838</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2179478791576678</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1896006273007125</v>
+        <v>0.1851905556681241</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2498141503344251</v>
+        <v>0.2487332057110542</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>57692</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45296</v>
+        <v>43940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74015</v>
+        <v>73443</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1537673234871167</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1207269920126505</v>
+        <v>0.117112960123861</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1972735217165573</v>
+        <v>0.1957467375624798</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>37</v>
@@ -7698,19 +7698,19 @@
         <v>41307</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30090</v>
+        <v>30345</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56832</v>
+        <v>56485</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1116002873064814</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08129434813019251</v>
+        <v>0.0819826714996771</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.153543890551025</v>
+        <v>0.1526068591820529</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>89</v>
@@ -7719,19 +7719,19 @@
         <v>98999</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>79437</v>
+        <v>81235</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>118608</v>
+        <v>119103</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1328268556471088</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1065802103561047</v>
+        <v>0.1089931356615831</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1591354973833684</v>
+        <v>0.1597993357561731</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>107750</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>90088</v>
+        <v>90445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>125510</v>
+        <v>127325</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2871870328547664</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2401120890315039</v>
+        <v>0.2410621786172731</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3345208782805609</v>
+        <v>0.3393600240358768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>110</v>
@@ -7769,19 +7769,19 @@
         <v>113220</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>95843</v>
+        <v>95807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>130279</v>
+        <v>131019</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3058888618195992</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2589412877988888</v>
+        <v>0.2588433759850493</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.351977573919935</v>
+        <v>0.3539751915376207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>210</v>
@@ -7790,19 +7790,19 @@
         <v>220970</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>195311</v>
+        <v>198052</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>246110</v>
+        <v>251047</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2964745020121851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2620477514376156</v>
+        <v>0.2657258487526483</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3302040615588424</v>
+        <v>0.3368286644066406</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>91815</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>75234</v>
+        <v>74602</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>109681</v>
+        <v>107325</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2447134717256623</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2005209120592911</v>
+        <v>0.1988363760609591</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2923326343067623</v>
+        <v>0.2860548154975346</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -7840,19 +7840,19 @@
         <v>88113</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72674</v>
+        <v>71918</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>105905</v>
+        <v>106345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2380565842237155</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1963433559617144</v>
+        <v>0.1943021486504405</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2861265184189259</v>
+        <v>0.2873136919011751</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>172</v>
@@ -7861,19 +7861,19 @@
         <v>179927</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>157533</v>
+        <v>157155</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>207786</v>
+        <v>203395</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2414076112413752</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2113615379397674</v>
+        <v>0.2108534084001955</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.278785013066187</v>
+        <v>0.2728937054998839</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>20740</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>12898</v>
+        <v>13159</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>30637</v>
+        <v>30225</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0552771407035588</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03437746974736866</v>
+        <v>0.03507172659567327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08165806036481423</v>
+        <v>0.08055825173049211</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -7911,19 +7911,19 @@
         <v>29866</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>19907</v>
+        <v>19688</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42630</v>
+        <v>40761</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08068862873114967</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0537817683318465</v>
+        <v>0.05319188977150872</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1151740592713453</v>
+        <v>0.1101245848266009</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>49</v>
@@ -7932,19 +7932,19 @@
         <v>50605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>37774</v>
+        <v>37821</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>65637</v>
+        <v>66115</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06789667709992726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05068116250037566</v>
+        <v>0.05074449578055866</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08806438177599851</v>
+        <v>0.08870655420409249</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>97195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>79846</v>
+        <v>81462</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115953</v>
+        <v>116965</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2590550312288958</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2128141373344354</v>
+        <v>0.2171197584317023</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3090502070193514</v>
+        <v>0.3117470280899495</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>91</v>
@@ -7982,19 +7982,19 @@
         <v>97629</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80010</v>
+        <v>82248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115305</v>
+        <v>115495</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2637656379190543</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2161637023646845</v>
+        <v>0.222210526060463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3115220930253718</v>
+        <v>0.312034508767966</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>182</v>
@@ -8003,19 +8003,19 @@
         <v>194824</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>170434</v>
+        <v>173091</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>220075</v>
+        <v>218639</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2613943539994037</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2286700991695434</v>
+        <v>0.2322359607864729</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2952738142249145</v>
+        <v>0.2933473400407482</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>91806</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74240</v>
+        <v>74515</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>109911</v>
+        <v>109664</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1765450520919042</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1427643380641795</v>
+        <v>0.1432933948539782</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2113601691978299</v>
+        <v>0.2108862117729999</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -8128,19 +8128,19 @@
         <v>22191</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14239</v>
+        <v>14533</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33351</v>
+        <v>34174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.133579125146528</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08571331299881288</v>
+        <v>0.08748104825999257</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2007597484174862</v>
+        <v>0.2057122235050377</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>108</v>
@@ -8149,19 +8149,19 @@
         <v>113997</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>94625</v>
+        <v>93692</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>132817</v>
+        <v>134159</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1661424580148768</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1379097434724229</v>
+        <v>0.1365504817494648</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1935715015624403</v>
+        <v>0.1955281418911284</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>135006</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>115554</v>
+        <v>114725</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>157196</v>
+        <v>155383</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2596188741214175</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.222212961748022</v>
+        <v>0.2206175827803802</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3022897777429684</v>
+        <v>0.2988036837974808</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>32</v>
@@ -8199,19 +8199,19 @@
         <v>34466</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24990</v>
+        <v>24202</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46444</v>
+        <v>46980</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2074720342772489</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1504317168868079</v>
+        <v>0.1456875537848648</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2795750431202547</v>
+        <v>0.2828045350530401</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>161</v>
@@ -8220,19 +8220,19 @@
         <v>169472</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>148838</v>
+        <v>144727</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>193909</v>
+        <v>191038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2469934649689908</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2169210619935613</v>
+        <v>0.2109303739561086</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2826087995739858</v>
+        <v>0.2784244132502444</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>130344</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>113089</v>
+        <v>111908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>152733</v>
+        <v>151781</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2506535604261865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2174717126940298</v>
+        <v>0.2152015909621995</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.293708241205824</v>
+        <v>0.2918775401338125</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -8270,19 +8270,19 @@
         <v>32183</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22727</v>
+        <v>22584</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>43833</v>
+        <v>43130</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1937277206951506</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1368059847500812</v>
+        <v>0.1359473646021257</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2638609995634397</v>
+        <v>0.2596266435948592</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>159</v>
@@ -8291,19 +8291,19 @@
         <v>162526</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>139142</v>
+        <v>141010</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>184679</v>
+        <v>185790</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2368710949863337</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.202790251409042</v>
+        <v>0.2055131194063719</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2691576059907924</v>
+        <v>0.2707765064894515</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>42549</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>31299</v>
+        <v>31567</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>57048</v>
+        <v>57094</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08182301651135909</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06018838637354208</v>
+        <v>0.06070346716827327</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1097041064848492</v>
+        <v>0.1097928532942436</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -8341,19 +8341,19 @@
         <v>14743</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>9043</v>
+        <v>8855</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>22455</v>
+        <v>22423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08874597516600298</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05443769366492782</v>
+        <v>0.05330640631339288</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1351731754442708</v>
+        <v>0.1349782140912748</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>56</v>
@@ -8362,19 +8362,19 @@
         <v>57292</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>44842</v>
+        <v>44563</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>73856</v>
+        <v>73709</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08349915231980706</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06535491536981732</v>
+        <v>0.06494692069871424</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1076400725643668</v>
+        <v>0.1074258267594495</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>120311</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>101543</v>
+        <v>101172</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>140318</v>
+        <v>140732</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2313594968491327</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1952692618590709</v>
+        <v>0.1945555343672726</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2698332331949966</v>
+        <v>0.2706292933183376</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>56</v>
@@ -8412,19 +8412,19 @@
         <v>62541</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50305</v>
+        <v>49280</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>75713</v>
+        <v>75558</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3764751447150695</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.3028178302802283</v>
+        <v>0.2966457162817743</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4557633920384424</v>
+        <v>0.4548331614315709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>169</v>
@@ -8433,19 +8433,19 @@
         <v>182852</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>161994</v>
+        <v>160164</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207211</v>
+        <v>207328</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2664938297099917</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2360947671749677</v>
+        <v>0.2334286576950796</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3019955162437966</v>
+        <v>0.3021664205170047</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>186811</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162426</v>
+        <v>161032</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>212236</v>
+        <v>212638</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1635705407772669</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1422192368732548</v>
+        <v>0.1409990786587609</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1858326407676247</v>
+        <v>0.1861847527526088</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -8558,19 +8558,19 @@
         <v>109958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>90414</v>
+        <v>90666</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>129454</v>
+        <v>129530</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1338656481047308</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1100714210755339</v>
+        <v>0.1103781588840995</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1575994666938895</v>
+        <v>0.1576926884359907</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>288</v>
@@ -8579,19 +8579,19 @@
         <v>296769</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>265715</v>
+        <v>267251</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>328038</v>
+        <v>330976</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1511437545088364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1353277517528897</v>
+        <v>0.1361100945203095</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.167068789639546</v>
+        <v>0.1685651289888178</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>303238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>274010</v>
+        <v>270646</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>334827</v>
+        <v>331063</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2655133287803228</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2399213329805233</v>
+        <v>0.2369760050889382</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2931731530155149</v>
+        <v>0.289877203916075</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>182</v>
@@ -8629,19 +8629,19 @@
         <v>189510</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>166480</v>
+        <v>165009</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>213406</v>
+        <v>214081</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2307136722807946</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.202676692618909</v>
+        <v>0.2008856870256886</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2598051375080399</v>
+        <v>0.2606263002862487</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>473</v>
@@ -8650,19 +8650,19 @@
         <v>492748</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>453413</v>
+        <v>452810</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>532328</v>
+        <v>533480</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2509551919002573</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.230921834097581</v>
+        <v>0.2306149165053349</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2711131443593303</v>
+        <v>0.2716999950542215</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>278641</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>251389</v>
+        <v>249301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>310907</v>
+        <v>309039</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2439765896326385</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2201148321052719</v>
+        <v>0.2182864518617228</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.272228075674332</v>
+        <v>0.2705925414754699</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>191</v>
@@ -8700,19 +8700,19 @@
         <v>196025</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>172370</v>
+        <v>172156</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>221077</v>
+        <v>219935</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2386451841119236</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2098471437389834</v>
+        <v>0.2095861178537824</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2691441277387028</v>
+        <v>0.2677535916388445</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>455</v>
@@ -8721,19 +8721,19 @@
         <v>474666</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>438970</v>
+        <v>435627</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>511800</v>
+        <v>516248</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2417462420045016</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2235662251480771</v>
+        <v>0.2218634275133353</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2606580785459134</v>
+        <v>0.2629237767656637</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>94702</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>77845</v>
+        <v>76408</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116667</v>
+        <v>116141</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08292067623615144</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06816077625981462</v>
+        <v>0.06690215339767064</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1021526782580403</v>
+        <v>0.1016927827550697</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>63</v>
@@ -8771,19 +8771,19 @@
         <v>63914</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>49638</v>
+        <v>50414</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>80950</v>
+        <v>79784</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07781004731396736</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06043006274967272</v>
+        <v>0.06137496209082201</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09855066285875845</v>
+        <v>0.09713054390096161</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>153</v>
@@ -8792,19 +8792,19 @@
         <v>158616</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134804</v>
+        <v>138068</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>186058</v>
+        <v>188134</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.08078268859844628</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06865513312422016</v>
+        <v>0.07031786996083109</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09475895141766057</v>
+        <v>0.09581604773329239</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>278689</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>248877</v>
+        <v>251625</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>305730</v>
+        <v>308463</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2440188645736203</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2179151680302085</v>
+        <v>0.2203214515196313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2676956138874353</v>
+        <v>0.2700881211569606</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>252</v>
@@ -8842,19 +8842,19 @@
         <v>262001</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>236199</v>
+        <v>237279</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>289162</v>
+        <v>289695</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3189654481885837</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.287553396791537</v>
+        <v>0.2888678026346468</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3520313674861351</v>
+        <v>0.3526805199086725</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>521</v>
@@ -8863,19 +8863,19 @@
         <v>540690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>505044</v>
+        <v>503978</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>581257</v>
+        <v>584068</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2753721229879585</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2572175478357723</v>
+        <v>0.2566747211400714</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2960326421759481</v>
+        <v>0.2974642935531573</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>104777</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>86901</v>
+        <v>84615</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>125603</v>
+        <v>124114</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1690692681623635</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1402245771001646</v>
+        <v>0.1365347301806745</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2026744001274886</v>
+        <v>0.2002711771127671</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>102</v>
@@ -8988,19 +8988,19 @@
         <v>109126</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>90251</v>
+        <v>91465</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>129737</v>
+        <v>132774</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1478179952818793</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1222505253657749</v>
+        <v>0.1238956860680257</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1757369469040115</v>
+        <v>0.1798515132448102</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>201</v>
@@ -9009,19 +9009,19 @@
         <v>213903</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>188269</v>
+        <v>187616</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>242679</v>
+        <v>241059</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1575162909054824</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1386398636169112</v>
+        <v>0.1381585380928886</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1787067142978205</v>
+        <v>0.1775135913104096</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>164023</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>144167</v>
+        <v>143223</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>185905</v>
+        <v>185227</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2646694153859722</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2326297217401362</v>
+        <v>0.2311061499362477</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2999778701178472</v>
+        <v>0.298883654782926</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>151</v>
@@ -9059,19 +9059,19 @@
         <v>158057</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>135867</v>
+        <v>135615</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>180493</v>
+        <v>181345</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2140989600602062</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.184040141537606</v>
+        <v>0.1836990818612881</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2444891937975139</v>
+        <v>0.2456435319940065</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>311</v>
@@ -9080,19 +9080,19 @@
         <v>322081</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>288751</v>
+        <v>289882</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>353602</v>
+        <v>353858</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2371774470914414</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.212633548517474</v>
+        <v>0.2134665143896912</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2603892945954066</v>
+        <v>0.2605778551167777</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>125151</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>104223</v>
+        <v>104558</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146193</v>
+        <v>146875</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2019442181939403</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1681750553425096</v>
+        <v>0.1687161881341643</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.235897907424126</v>
+        <v>0.2369994395443975</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>122</v>
@@ -9130,19 +9130,19 @@
         <v>127946</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>107848</v>
+        <v>108298</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>148120</v>
+        <v>151121</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1733107327555358</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1460877438065366</v>
+        <v>0.146697342382885</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2006384160109743</v>
+        <v>0.2047034243044128</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>242</v>
@@ -9151,19 +9151,19 @@
         <v>253096</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>226984</v>
+        <v>226675</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>283462</v>
+        <v>282587</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1863779973884604</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1671491575245899</v>
+        <v>0.1669214087633192</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2087389811988505</v>
+        <v>0.2080944851180216</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>37550</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>26378</v>
+        <v>26998</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>50386</v>
+        <v>50943</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06059144621526723</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.042564171710591</v>
+        <v>0.04356394037167799</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.08130343351444368</v>
+        <v>0.08220136066185724</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>55</v>
@@ -9201,19 +9201,19 @@
         <v>57272</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>43976</v>
+        <v>43397</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>74631</v>
+        <v>72456</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.0775788564831153</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05956842797889866</v>
+        <v>0.05878412700700803</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1010932251778652</v>
+        <v>0.09814667305341848</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>92</v>
@@ -9222,19 +9222,19 @@
         <v>94822</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>77510</v>
+        <v>76539</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>113944</v>
+        <v>113996</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06982643018923824</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05707748305754276</v>
+        <v>0.05636277145537907</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08390751081378665</v>
+        <v>0.08394540078830437</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>188228</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>165583</v>
+        <v>166207</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>210976</v>
+        <v>213723</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3037256520424568</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2671869453213156</v>
+        <v>0.2681928498294929</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3404331100372197</v>
+        <v>0.3448655365889229</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>269</v>
@@ -9272,19 +9272,19 @@
         <v>285843</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>260157</v>
+        <v>260043</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>312960</v>
+        <v>312213</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3871934554192635</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3523995030278806</v>
+        <v>0.3522452415904594</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.4239247274711262</v>
+        <v>0.4229127250111057</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>449</v>
@@ -9293,19 +9293,19 @@
         <v>474071</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>437834</v>
+        <v>440254</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>510404</v>
+        <v>509550</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3491018344253775</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.322417622303018</v>
+        <v>0.3241994618061605</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3758569212050363</v>
+        <v>0.3752285685137297</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>44905</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>34092</v>
+        <v>32835</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>58300</v>
+        <v>58216</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1575712879648488</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1196285987521103</v>
+        <v>0.1152197649030012</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2045781284747415</v>
+        <v>0.2042809690124855</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>100</v>
@@ -9418,19 +9418,19 @@
         <v>110038</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>90899</v>
+        <v>92164</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>131310</v>
+        <v>133340</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1020256214054556</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08428009354553971</v>
+        <v>0.08545293083918558</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1217479881397874</v>
+        <v>0.1236307802084249</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>143</v>
@@ -9439,19 +9439,19 @@
         <v>154943</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>134402</v>
+        <v>129944</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>180773</v>
+        <v>179155</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1136348409157219</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09857041767313933</v>
+        <v>0.09530054714433063</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1325789347247502</v>
+        <v>0.1313922676639123</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>76476</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>62549</v>
+        <v>61440</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>92768</v>
+        <v>91547</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2683569828839147</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2194870905739377</v>
+        <v>0.2155938034935483</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3255241657653372</v>
+        <v>0.3212415607156279</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>220</v>
@@ -9489,19 +9489,19 @@
         <v>235740</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>208604</v>
+        <v>208669</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>264515</v>
+        <v>264816</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2185736327857956</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1934137530047939</v>
+        <v>0.1934745257854456</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2452539734664702</v>
+        <v>0.2455326438594893</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>293</v>
@@ -9510,19 +9510,19 @@
         <v>312216</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>279152</v>
+        <v>284077</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>345300</v>
+        <v>344604</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2289785099804462</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2047295389962211</v>
+        <v>0.2083415489529435</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2532422040500587</v>
+        <v>0.2527320401990606</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>67691</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>54099</v>
+        <v>54256</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>83568</v>
+        <v>82950</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2375290976271206</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1898360580617132</v>
+        <v>0.1903859562987124</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2932432778521032</v>
+        <v>0.291073746484849</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>217</v>
@@ -9560,19 +9560,19 @@
         <v>230863</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>206586</v>
+        <v>204003</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>260927</v>
+        <v>262442</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2140526408965837</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.191542919511354</v>
+        <v>0.1891483329349116</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2419269054758318</v>
+        <v>0.2433318362471535</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>280</v>
@@ -9581,19 +9581,19 @@
         <v>298554</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>266681</v>
+        <v>266084</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>330737</v>
+        <v>329477</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2189592944015273</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.195583190553179</v>
+        <v>0.1951457845913931</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2425620007140928</v>
+        <v>0.2416380491084866</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>30356</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20382</v>
+        <v>20290</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42480</v>
+        <v>41779</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1065215164199094</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.07152227875261757</v>
+        <v>0.07119790674783753</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.149063874706436</v>
+        <v>0.1466046327282625</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>90</v>
@@ -9631,19 +9631,19 @@
         <v>94974</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>77030</v>
+        <v>76917</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>114927</v>
+        <v>115895</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.08805861498233024</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.07142107869154572</v>
+        <v>0.07131586539016242</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1065578963742658</v>
+        <v>0.1074556511526057</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>119</v>
@@ -9652,19 +9652,19 @@
         <v>125331</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>105068</v>
+        <v>105245</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>146538</v>
+        <v>148115</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.09191741961754116</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.07705668168731375</v>
+        <v>0.07718636631174132</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1074709873915504</v>
+        <v>0.1086274276727609</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>65551</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>51910</v>
+        <v>51583</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>80783</v>
+        <v>81269</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2300211151042064</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1821550085311263</v>
+        <v>0.1810076589792684</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2834684232090621</v>
+        <v>0.2851759297931152</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>362</v>
@@ -9702,19 +9702,19 @@
         <v>406920</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>374823</v>
+        <v>373234</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>441554</v>
+        <v>439451</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3772894899298348</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3475296653924702</v>
+        <v>0.346056013707061</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4094012480932331</v>
+        <v>0.4074515190299602</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>424</v>
@@ -9723,19 +9723,19 @@
         <v>472471</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>437254</v>
+        <v>432833</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>508729</v>
+        <v>509320</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3465099350847635</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3206814394666144</v>
+        <v>0.3174394126723625</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.373101072955971</v>
+        <v>0.3735347002152696</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>565492</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>516862</v>
+        <v>522857</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>607427</v>
+        <v>613434</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1677908268816221</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1533614271224694</v>
+        <v>0.1551401592323199</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1802334569457407</v>
+        <v>0.1820160608122547</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>409</v>
@@ -9848,19 +9848,19 @@
         <v>440630</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>401039</v>
+        <v>401869</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>479210</v>
+        <v>478423</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.1251255219601626</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.1138829484585109</v>
+        <v>0.1141186223883989</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.1360811362660921</v>
+        <v>0.1358575660215181</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>945</v>
@@ -9869,19 +9869,19 @@
         <v>1006122</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>945475</v>
+        <v>946828</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>1064013</v>
+        <v>1062957</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.1459898997952726</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.1371898591842997</v>
+        <v>0.1373862790539575</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.1543899979962683</v>
+        <v>0.1542368271508338</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>912807</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>861279</v>
+        <v>860806</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>964825</v>
+        <v>966901</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.270844965812796</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2555555945556022</v>
+        <v>0.2554153310730045</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2862794200819374</v>
+        <v>0.2868955457719413</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>781</v>
@@ -9919,19 +9919,19 @@
         <v>821027</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>767244</v>
+        <v>768135</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>872871</v>
+        <v>870767</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2331469569567437</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2178742162134051</v>
+        <v>0.2181270335672113</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2478688675798395</v>
+        <v>0.2472713842604965</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1653</v>
@@ -9940,19 +9940,19 @@
         <v>1733835</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1662057</v>
+        <v>1664822</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1808445</v>
+        <v>1815160</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2515822055000721</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.241167142996627</v>
+        <v>0.2415682618280917</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2624082875239762</v>
+        <v>0.2633826200019005</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>790889</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>744158</v>
+        <v>743008</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>845705</v>
+        <v>844976</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2346698513176072</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2208038526655703</v>
+        <v>0.220462726615558</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2509345243194838</v>
+        <v>0.2507182140062391</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>737</v>
@@ -9990,19 +9990,19 @@
         <v>767796</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>718653</v>
+        <v>718857</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>821219</v>
+        <v>816968</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2180309275703624</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.204075780799556</v>
+        <v>0.2041335263604479</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.233201321225695</v>
+        <v>0.2319943000680865</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1489</v>
@@ -10011,19 +10011,19 @@
         <v>1558686</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1484031</v>
+        <v>1493276</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1626376</v>
+        <v>1633810</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2261677683235499</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2153353075734787</v>
+        <v>0.2166767022241839</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2359897398696177</v>
+        <v>0.2370684153670756</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>256223</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>228831</v>
+        <v>227492</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>289314</v>
+        <v>284992</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.07602569037382094</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.06789797171597879</v>
+        <v>0.06750053287631116</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.08584416279744353</v>
+        <v>0.08456167261046602</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>291</v>
@@ -10061,19 +10061,19 @@
         <v>302978</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>268990</v>
+        <v>271609</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>337618</v>
+        <v>341951</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.08603658778455681</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0763850661818218</v>
+        <v>0.07712879705700187</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.09587320391892266</v>
+        <v>0.09710372963467848</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>536</v>
@@ -10082,19 +10082,19 @@
         <v>559201</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>517380</v>
+        <v>517453</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>608183</v>
+        <v>611240</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.08114101405244313</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.07507260969354751</v>
+        <v>0.07508321011988971</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.08824828078297306</v>
+        <v>0.08869188555343703</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>844809</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>793093</v>
+        <v>789761</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>895099</v>
+        <v>894510</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.2506686656141537</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2353238297163426</v>
+        <v>0.2343351692423423</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2655906614894367</v>
+        <v>0.2654159223701875</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1099</v>
@@ -10132,19 +10132,19 @@
         <v>1189070</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1133351</v>
+        <v>1128269</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1246379</v>
+        <v>1246940</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3376600057281745</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3218374517626747</v>
+        <v>0.3203943922788275</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3539338939008133</v>
+        <v>0.3540933169022833</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1903</v>
@@ -10153,19 +10153,19 @@
         <v>2033879</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1953144</v>
+        <v>1957741</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2109122</v>
+        <v>2106183</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2951191123286623</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2834043189782399</v>
+        <v>0.2840713474168183</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.306036934075943</v>
+        <v>0.3056105223735074</v>
       </c>
     </row>
     <row r="45">
